--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H2">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I2">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J2">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.1618026423467</v>
+        <v>16.779843</v>
       </c>
       <c r="N2">
-        <v>16.1618026423467</v>
+        <v>50.33952900000001</v>
       </c>
       <c r="O2">
-        <v>0.3817137874256314</v>
+        <v>0.3792236656946227</v>
       </c>
       <c r="P2">
-        <v>0.3817137874256314</v>
+        <v>0.3968949233565789</v>
       </c>
       <c r="Q2">
-        <v>440.6075033376237</v>
+        <v>465.4377134220391</v>
       </c>
       <c r="R2">
-        <v>440.6075033376237</v>
+        <v>4188.939420798351</v>
       </c>
       <c r="S2">
-        <v>0.002729887261678705</v>
+        <v>0.002063914593892981</v>
       </c>
       <c r="T2">
-        <v>0.002729887261678705</v>
+        <v>0.002165575586183663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H3">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I3">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J3">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.64520376391774</v>
+        <v>10.084631</v>
       </c>
       <c r="N3">
-        <v>9.64520376391774</v>
+        <v>30.253893</v>
       </c>
       <c r="O3">
-        <v>0.227803008160135</v>
+        <v>0.2279121881532281</v>
       </c>
       <c r="P3">
-        <v>0.227803008160135</v>
+        <v>0.2385325564622017</v>
       </c>
       <c r="Q3">
-        <v>262.9501945820928</v>
+        <v>279.7265500842296</v>
       </c>
       <c r="R3">
-        <v>262.9501945820928</v>
+        <v>2517.538950758067</v>
       </c>
       <c r="S3">
-        <v>0.001629169683239702</v>
+        <v>0.00124040594986053</v>
       </c>
       <c r="T3">
-        <v>0.001629169683239702</v>
+        <v>0.001301503875171594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H4">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I4">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J4">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.22522457315251</v>
+        <v>5.926370333333334</v>
       </c>
       <c r="N4">
-        <v>5.22522457315251</v>
+        <v>17.779111</v>
       </c>
       <c r="O4">
-        <v>0.1234107547348391</v>
+        <v>0.1339356918935731</v>
       </c>
       <c r="P4">
-        <v>0.1234107547348391</v>
+        <v>0.1401768955306099</v>
       </c>
       <c r="Q4">
-        <v>142.4515077001854</v>
+        <v>164.3851052026454</v>
       </c>
       <c r="R4">
-        <v>142.4515077001854</v>
+        <v>1479.465946823809</v>
       </c>
       <c r="S4">
-        <v>0.0008825917700717828</v>
+        <v>0.0007289413983063533</v>
       </c>
       <c r="T4">
-        <v>0.0008825917700717828</v>
+        <v>0.0007648464236852398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H5">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I5">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J5">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.39856456665472</v>
+        <v>5.546787999999999</v>
       </c>
       <c r="N5">
-        <v>5.39856456665472</v>
+        <v>16.640364</v>
       </c>
       <c r="O5">
-        <v>0.127504745169959</v>
+        <v>0.1253571489429874</v>
       </c>
       <c r="P5">
-        <v>0.127504745169959</v>
+        <v>0.1311986052631834</v>
       </c>
       <c r="Q5">
-        <v>147.1771502201264</v>
+        <v>153.8562859948573</v>
       </c>
       <c r="R5">
-        <v>147.1771502201264</v>
+        <v>1384.706573953716</v>
       </c>
       <c r="S5">
-        <v>0.0009118705981006123</v>
+        <v>0.0006822529091857687</v>
       </c>
       <c r="T5">
-        <v>0.0009118705981006123</v>
+        <v>0.0007158582279069302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H6">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I6">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J6">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.90931155706898</v>
+        <v>5.910247</v>
       </c>
       <c r="N6">
-        <v>5.90931155706898</v>
+        <v>11.820494</v>
       </c>
       <c r="O6">
-        <v>0.1395677045094354</v>
+        <v>0.1335713053155888</v>
       </c>
       <c r="P6">
-        <v>0.1395677045094354</v>
+        <v>0.09319701938742614</v>
       </c>
       <c r="Q6">
-        <v>161.1012749767295</v>
+        <v>163.9378776928643</v>
       </c>
       <c r="R6">
-        <v>161.1012749767295</v>
+        <v>983.627266157186</v>
       </c>
       <c r="S6">
-        <v>0.0009981407830501159</v>
+        <v>0.0007269582341629898</v>
       </c>
       <c r="T6">
-        <v>0.0009981407830501159</v>
+        <v>0.0005085103840171105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H7">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J7">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.1618026423467</v>
+        <v>16.779843</v>
       </c>
       <c r="N7">
-        <v>16.1618026423467</v>
+        <v>50.33952900000001</v>
       </c>
       <c r="O7">
-        <v>0.3817137874256314</v>
+        <v>0.3792236656946227</v>
       </c>
       <c r="P7">
-        <v>0.3817137874256314</v>
+        <v>0.3968949233565789</v>
       </c>
       <c r="Q7">
-        <v>668.3830091985767</v>
+        <v>757.7595932428411</v>
       </c>
       <c r="R7">
-        <v>668.3830091985767</v>
+        <v>6819.83633918557</v>
       </c>
       <c r="S7">
-        <v>0.004141123900324354</v>
+        <v>0.003360172667697396</v>
       </c>
       <c r="T7">
-        <v>0.004141123900324354</v>
+        <v>0.003525682659572505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H8">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J8">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.64520376391774</v>
+        <v>10.084631</v>
       </c>
       <c r="N8">
-        <v>9.64520376391774</v>
+        <v>30.253893</v>
       </c>
       <c r="O8">
-        <v>0.227803008160135</v>
+        <v>0.2279121881532281</v>
       </c>
       <c r="P8">
-        <v>0.227803008160135</v>
+        <v>0.2385325564622017</v>
       </c>
       <c r="Q8">
-        <v>398.8843607809775</v>
+        <v>455.4110479200637</v>
       </c>
       <c r="R8">
-        <v>398.8843607809775</v>
+        <v>4098.699431280574</v>
       </c>
       <c r="S8">
-        <v>0.00247138173347095</v>
+        <v>0.002019452830995728</v>
       </c>
       <c r="T8">
-        <v>0.00247138173347095</v>
+        <v>0.002118923797134892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H9">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J9">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.22522457315251</v>
+        <v>5.926370333333334</v>
       </c>
       <c r="N9">
-        <v>5.22522457315251</v>
+        <v>17.779111</v>
       </c>
       <c r="O9">
-        <v>0.1234107547348391</v>
+        <v>0.1339356918935731</v>
       </c>
       <c r="P9">
-        <v>0.1234107547348391</v>
+        <v>0.1401768955306099</v>
       </c>
       <c r="Q9">
-        <v>216.0929322816503</v>
+        <v>267.6284857488301</v>
       </c>
       <c r="R9">
-        <v>216.0929322816503</v>
+        <v>2408.656371739471</v>
       </c>
       <c r="S9">
-        <v>0.001338854510433627</v>
+        <v>0.001186758875677166</v>
       </c>
       <c r="T9">
-        <v>0.001338854510433627</v>
+        <v>0.001245214339516661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H10">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J10">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.39856456665472</v>
+        <v>5.546787999999999</v>
       </c>
       <c r="N10">
-        <v>5.39856456665472</v>
+        <v>16.640364</v>
       </c>
       <c r="O10">
-        <v>0.127504745169959</v>
+        <v>0.1253571489429874</v>
       </c>
       <c r="P10">
-        <v>0.127504745169959</v>
+        <v>0.1311986052631834</v>
       </c>
       <c r="Q10">
-        <v>223.26153277971</v>
+        <v>250.4869573978893</v>
       </c>
       <c r="R10">
-        <v>223.26153277971</v>
+        <v>2254.382616581004</v>
       </c>
       <c r="S10">
-        <v>0.001383269258333916</v>
+        <v>0.001110747307415922</v>
       </c>
       <c r="T10">
-        <v>0.001383269258333916</v>
+        <v>0.001165458715431655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H11">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J11">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.90931155706898</v>
+        <v>5.910247</v>
       </c>
       <c r="N11">
-        <v>5.90931155706898</v>
+        <v>11.820494</v>
       </c>
       <c r="O11">
-        <v>0.1395677045094354</v>
+        <v>0.1335713053155888</v>
       </c>
       <c r="P11">
-        <v>0.1395677045094354</v>
+        <v>0.09319701938742614</v>
       </c>
       <c r="Q11">
-        <v>244.3838430780514</v>
+        <v>266.9003734233223</v>
       </c>
       <c r="R11">
-        <v>244.3838430780514</v>
+        <v>1601.402240539934</v>
       </c>
       <c r="S11">
-        <v>0.001514137492269739</v>
+        <v>0.001183530169426527</v>
       </c>
       <c r="T11">
-        <v>0.001514137492269739</v>
+        <v>0.0008278843992239347</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H12">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I12">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J12">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.1618026423467</v>
+        <v>16.779843</v>
       </c>
       <c r="N12">
-        <v>16.1618026423467</v>
+        <v>50.33952900000001</v>
       </c>
       <c r="O12">
-        <v>0.3817137874256314</v>
+        <v>0.3792236656946227</v>
       </c>
       <c r="P12">
-        <v>0.3817137874256314</v>
+        <v>0.3968949233565789</v>
       </c>
       <c r="Q12">
-        <v>35073.74377646673</v>
+        <v>43840.16583713198</v>
       </c>
       <c r="R12">
-        <v>35073.74377646673</v>
+        <v>394561.4925341877</v>
       </c>
       <c r="S12">
-        <v>0.2173076164828521</v>
+        <v>0.1944027212678824</v>
       </c>
       <c r="T12">
-        <v>0.2173076164828521</v>
+        <v>0.2039782984776081</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H13">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I13">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J13">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.64520376391774</v>
+        <v>10.084631</v>
       </c>
       <c r="N13">
-        <v>9.64520376391774</v>
+        <v>30.253893</v>
       </c>
       <c r="O13">
-        <v>0.227803008160135</v>
+        <v>0.2279121881532281</v>
       </c>
       <c r="P13">
-        <v>0.227803008160135</v>
+        <v>0.2385325564622017</v>
       </c>
       <c r="Q13">
-        <v>20931.66294464433</v>
+        <v>26347.79690407604</v>
       </c>
       <c r="R13">
-        <v>20931.66294464433</v>
+        <v>237130.1721366844</v>
       </c>
       <c r="S13">
-        <v>0.1296870334832935</v>
+        <v>0.1168354024160086</v>
       </c>
       <c r="T13">
-        <v>0.1296870334832935</v>
+        <v>0.1225902931365055</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H14">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I14">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J14">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.22522457315251</v>
+        <v>5.926370333333334</v>
       </c>
       <c r="N14">
-        <v>5.22522457315251</v>
+        <v>17.779111</v>
       </c>
       <c r="O14">
-        <v>0.1234107547348391</v>
+        <v>0.1339356918935731</v>
       </c>
       <c r="P14">
-        <v>0.1234107547348391</v>
+        <v>0.1401768955306099</v>
       </c>
       <c r="Q14">
-        <v>11339.58828163479</v>
+        <v>15483.64059339485</v>
       </c>
       <c r="R14">
-        <v>11339.58828163479</v>
+        <v>139352.7653405536</v>
       </c>
       <c r="S14">
-        <v>0.07025708225171892</v>
+        <v>0.06865991058684202</v>
       </c>
       <c r="T14">
-        <v>0.07025708225171892</v>
+        <v>0.0720418502569725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H15">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I15">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J15">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.39856456665472</v>
+        <v>5.546787999999999</v>
       </c>
       <c r="N15">
-        <v>5.39856456665472</v>
+        <v>16.640364</v>
       </c>
       <c r="O15">
-        <v>0.127504745169959</v>
+        <v>0.1253571489429874</v>
       </c>
       <c r="P15">
-        <v>0.127504745169959</v>
+        <v>0.1311986052631834</v>
       </c>
       <c r="Q15">
-        <v>11715.76429695013</v>
+        <v>14491.91781969674</v>
       </c>
       <c r="R15">
-        <v>11715.76429695013</v>
+        <v>130427.2603772706</v>
       </c>
       <c r="S15">
-        <v>0.07258776909790163</v>
+        <v>0.06426226285287857</v>
       </c>
       <c r="T15">
-        <v>0.07258776909790163</v>
+        <v>0.06742759024956398</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2170.16285575518</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H16">
-        <v>2170.16285575518</v>
+        <v>7838.005249</v>
       </c>
       <c r="I16">
-        <v>0.5692946486120566</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J16">
-        <v>0.5692946486120566</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.90931155706898</v>
+        <v>5.910247</v>
       </c>
       <c r="N16">
-        <v>5.90931155706898</v>
+        <v>11.820494</v>
       </c>
       <c r="O16">
-        <v>0.1395677045094354</v>
+        <v>0.1335713053155888</v>
       </c>
       <c r="P16">
-        <v>0.1395677045094354</v>
+        <v>0.09319701938742614</v>
       </c>
       <c r="Q16">
-        <v>12824.16844423591</v>
+        <v>15441.51566962883</v>
       </c>
       <c r="R16">
-        <v>12824.16844423591</v>
+        <v>92649.09401777301</v>
       </c>
       <c r="S16">
-        <v>0.07945514729629036</v>
+        <v>0.06847311385245605</v>
       </c>
       <c r="T16">
-        <v>0.07945514729629036</v>
+        <v>0.04789723505924688</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H17">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I17">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J17">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.1618026423467</v>
+        <v>16.779843</v>
       </c>
       <c r="N17">
-        <v>16.1618026423467</v>
+        <v>50.33952900000001</v>
       </c>
       <c r="O17">
-        <v>0.3817137874256314</v>
+        <v>0.3792236656946227</v>
       </c>
       <c r="P17">
-        <v>0.3817137874256314</v>
+        <v>0.3968949233565789</v>
       </c>
       <c r="Q17">
-        <v>24827.51553669879</v>
+        <v>39806.27000664716</v>
       </c>
       <c r="R17">
-        <v>24827.51553669879</v>
+        <v>358256.4300598244</v>
       </c>
       <c r="S17">
-        <v>0.1538247031413565</v>
+        <v>0.1765150077571546</v>
       </c>
       <c r="T17">
-        <v>0.1538247031413565</v>
+        <v>0.1852095006862163</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H18">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I18">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J18">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.64520376391774</v>
+        <v>10.084631</v>
       </c>
       <c r="N18">
-        <v>9.64520376391774</v>
+        <v>30.253893</v>
       </c>
       <c r="O18">
-        <v>0.227803008160135</v>
+        <v>0.2279121881532281</v>
       </c>
       <c r="P18">
-        <v>0.227803008160135</v>
+        <v>0.2385325564622017</v>
       </c>
       <c r="Q18">
-        <v>14816.81540126286</v>
+        <v>23923.43864620212</v>
       </c>
       <c r="R18">
-        <v>14816.81540126286</v>
+        <v>215310.9478158191</v>
       </c>
       <c r="S18">
-        <v>0.0918010594829978</v>
+        <v>0.1060849448468047</v>
       </c>
       <c r="T18">
-        <v>0.0918010594829978</v>
+        <v>0.1113103067838441</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H19">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I19">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J19">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.22522457315251</v>
+        <v>5.926370333333334</v>
       </c>
       <c r="N19">
-        <v>5.22522457315251</v>
+        <v>17.779111</v>
       </c>
       <c r="O19">
-        <v>0.1234107547348391</v>
+        <v>0.1339356918935731</v>
       </c>
       <c r="P19">
-        <v>0.1234107547348391</v>
+        <v>0.1401768955306099</v>
       </c>
       <c r="Q19">
-        <v>8026.910558403373</v>
+        <v>14058.93354592472</v>
       </c>
       <c r="R19">
-        <v>8026.910558403373</v>
+        <v>126530.4019133225</v>
       </c>
       <c r="S19">
-        <v>0.04973260944952354</v>
+        <v>0.06234225822971669</v>
       </c>
       <c r="T19">
-        <v>0.04973260944952354</v>
+        <v>0.06541301312046079</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H20">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I20">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J20">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.39856456665472</v>
+        <v>5.546787999999999</v>
       </c>
       <c r="N20">
-        <v>5.39856456665472</v>
+        <v>16.640364</v>
       </c>
       <c r="O20">
-        <v>0.127504745169959</v>
+        <v>0.1253571489429874</v>
       </c>
       <c r="P20">
-        <v>0.127504745169959</v>
+        <v>0.1311986052631834</v>
       </c>
       <c r="Q20">
-        <v>8293.192821406092</v>
+        <v>13158.4628531763</v>
       </c>
       <c r="R20">
-        <v>8293.192821406092</v>
+        <v>118426.1656785867</v>
       </c>
       <c r="S20">
-        <v>0.05138242374518496</v>
+        <v>0.05834925433136006</v>
       </c>
       <c r="T20">
-        <v>0.05138242374518496</v>
+        <v>0.06122332824522234</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1536.18479857231</v>
+        <v>2372.267130666667</v>
       </c>
       <c r="H21">
-        <v>1536.18479857231</v>
+        <v>7116.801392</v>
       </c>
       <c r="I21">
-        <v>0.4029844040446819</v>
+        <v>0.4654641145188886</v>
       </c>
       <c r="J21">
-        <v>0.4029844040446819</v>
+        <v>0.4666461821176285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.90931155706898</v>
+        <v>5.910247</v>
       </c>
       <c r="N21">
-        <v>5.90931155706898</v>
+        <v>11.820494</v>
       </c>
       <c r="O21">
-        <v>0.1395677045094354</v>
+        <v>0.1335713053155888</v>
       </c>
       <c r="P21">
-        <v>0.1395677045094354</v>
+        <v>0.09319701938742614</v>
       </c>
       <c r="Q21">
-        <v>9077.794583997034</v>
+        <v>14020.68469222128</v>
       </c>
       <c r="R21">
-        <v>9077.794583997034</v>
+        <v>84124.10815332766</v>
       </c>
       <c r="S21">
-        <v>0.05624360822561907</v>
+        <v>0.06217264935385268</v>
       </c>
       <c r="T21">
-        <v>0.05624360822561907</v>
+        <v>0.04349003328188501</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H22">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I22">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J22">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.1618026423467</v>
+        <v>16.779843</v>
       </c>
       <c r="N22">
-        <v>16.1618026423467</v>
+        <v>50.33952900000001</v>
       </c>
       <c r="O22">
-        <v>0.3817137874256314</v>
+        <v>0.3792236656946227</v>
       </c>
       <c r="P22">
-        <v>0.3817137874256314</v>
+        <v>0.3968949233565789</v>
       </c>
       <c r="Q22">
-        <v>598.8727296862578</v>
+        <v>649.8919106696161</v>
       </c>
       <c r="R22">
-        <v>598.8727296862578</v>
+        <v>3899.351464017696</v>
       </c>
       <c r="S22">
-        <v>0.003710456639419806</v>
+        <v>0.002881849407995353</v>
       </c>
       <c r="T22">
-        <v>0.003710456639419806</v>
+        <v>0.002015865946998317</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H23">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I23">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J23">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.64520376391774</v>
+        <v>10.084631</v>
       </c>
       <c r="N23">
-        <v>9.64520376391774</v>
+        <v>30.253893</v>
       </c>
       <c r="O23">
-        <v>0.227803008160135</v>
+        <v>0.2279121881532281</v>
       </c>
       <c r="P23">
-        <v>0.227803008160135</v>
+        <v>0.2385325564622017</v>
       </c>
       <c r="Q23">
-        <v>357.4013143399498</v>
+        <v>390.582921961072</v>
       </c>
       <c r="R23">
-        <v>357.4013143399498</v>
+        <v>2343.497531766432</v>
       </c>
       <c r="S23">
-        <v>0.002214363777133034</v>
+        <v>0.001731982109558569</v>
       </c>
       <c r="T23">
-        <v>0.002214363777133034</v>
+        <v>0.001211528869545655</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H24">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I24">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J24">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.22522457315251</v>
+        <v>5.926370333333334</v>
       </c>
       <c r="N24">
-        <v>5.22522457315251</v>
+        <v>17.779111</v>
       </c>
       <c r="O24">
-        <v>0.1234107547348391</v>
+        <v>0.1339356918935731</v>
       </c>
       <c r="P24">
-        <v>0.1234107547348391</v>
+        <v>0.1401768955306099</v>
       </c>
       <c r="Q24">
-        <v>193.6197695638478</v>
+        <v>229.5313573116107</v>
       </c>
       <c r="R24">
-        <v>193.6197695638478</v>
+        <v>1377.188143869664</v>
       </c>
       <c r="S24">
-        <v>0.001199616753091233</v>
+        <v>0.001017822803030868</v>
       </c>
       <c r="T24">
-        <v>0.001199616753091233</v>
+        <v>0.0007119713899747291</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H25">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I25">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J25">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.39856456665472</v>
+        <v>5.546787999999999</v>
       </c>
       <c r="N25">
-        <v>5.39856456665472</v>
+        <v>16.640364</v>
       </c>
       <c r="O25">
-        <v>0.127504745169959</v>
+        <v>0.1253571489429874</v>
       </c>
       <c r="P25">
-        <v>0.127504745169959</v>
+        <v>0.1311986052631834</v>
       </c>
       <c r="Q25">
-        <v>200.0428522712477</v>
+        <v>214.8299391954559</v>
       </c>
       <c r="R25">
-        <v>200.0428522712477</v>
+        <v>1288.979635172736</v>
       </c>
       <c r="S25">
-        <v>0.001239412470437888</v>
+        <v>0.0009526315421470705</v>
       </c>
       <c r="T25">
-        <v>0.001239412470437888</v>
+        <v>0.0006663698250584881</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.0548225924445</v>
+        <v>38.730512</v>
       </c>
       <c r="H26">
-        <v>37.0548225924445</v>
+        <v>77.46102399999999</v>
       </c>
       <c r="I26">
-        <v>0.009720520352288053</v>
+        <v>0.00759933956842245</v>
       </c>
       <c r="J26">
-        <v>0.009720520352288053</v>
+        <v>0.005079092294630384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.90931155706898</v>
+        <v>5.910247</v>
       </c>
       <c r="N26">
-        <v>5.90931155706898</v>
+        <v>11.820494</v>
       </c>
       <c r="O26">
-        <v>0.1395677045094354</v>
+        <v>0.1335713053155888</v>
       </c>
       <c r="P26">
-        <v>0.1395677045094354</v>
+        <v>0.09319701938742614</v>
       </c>
       <c r="Q26">
-        <v>218.9684913906731</v>
+        <v>228.906892356464</v>
       </c>
       <c r="R26">
-        <v>218.9684913906731</v>
+        <v>915.627569425856</v>
       </c>
       <c r="S26">
-        <v>0.001356670712206092</v>
+        <v>0.00101505370569059</v>
       </c>
       <c r="T26">
-        <v>0.001356670712206092</v>
+        <v>0.0004733562630531946</v>
       </c>
     </row>
   </sheetData>
